--- a/DATA/collate_cultivar_data_50_percent/data/first_smoothed_kcp_trend.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/data/first_smoothed_kcp_trend.xlsx
@@ -2314,7 +2314,7 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>0.4379775</v>
+        <v>0.4379776</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>0.4525117</v>
+        <v>0.4525118</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2446,7 +2446,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>0.4533035</v>
+        <v>0.4533036</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>0.4540229</v>
+        <v>0.454023</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>0.4546734</v>
+        <v>0.4546735</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>0.4552582</v>
+        <v>0.4552583</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>0.4557805</v>
+        <v>0.4557806</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>0.4562432</v>
+        <v>0.4562434</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>0.4566494</v>
+        <v>0.4566496</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>0.4570019</v>
+        <v>0.4570021</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.4573033</v>
+        <v>0.4573036</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2545,7 +2545,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>0.4575562</v>
+        <v>0.4575565</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2556,7 +2556,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>0.457763</v>
+        <v>0.4577634</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>0.457926</v>
+        <v>0.4579264</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>0.4580474</v>
+        <v>0.4580478</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0.4581291</v>
+        <v>0.4581296</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>0.4581731</v>
+        <v>0.4581737</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>0.4581811</v>
+        <v>0.4581819</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0.4581548</v>
+        <v>0.4581557</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0.4580957</v>
+        <v>0.4580967</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>0.4580051</v>
+        <v>0.4580063</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.4578842</v>
+        <v>0.4578856</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>0.4577343</v>
+        <v>0.4577359</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>0.4575562</v>
+        <v>0.4575581</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.4573508</v>
+        <v>0.457353</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>0.457119</v>
+        <v>0.4571214</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.4568612</v>
+        <v>0.4568641</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.4565781</v>
+        <v>0.4565813</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0.45627</v>
+        <v>0.4562737</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>0.4559372</v>
+        <v>0.4559414</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>0.4555799</v>
+        <v>0.4555848</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>0.4551983</v>
+        <v>0.4552038</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.4547922</v>
+        <v>0.4547986</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>0.4543617</v>
+        <v>0.4543689</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>0.4539066</v>
+        <v>0.4539148</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>0.4534266</v>
+        <v>0.4534359</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0.4529214</v>
+        <v>0.4529319</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0.4523907</v>
+        <v>0.4524025</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.4518339</v>
+        <v>0.4518473</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.4512507</v>
+        <v>0.4512657</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.4506405</v>
+        <v>0.4506574</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.4500027</v>
+        <v>0.4500216</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.4493368</v>
+        <v>0.449358</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.4486421</v>
+        <v>0.4486659</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.4479181</v>
+        <v>0.4479446</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>0.4471642</v>
+        <v>0.4471938</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.4463798</v>
+        <v>0.4464127</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2941,7 +2941,7 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>0.4455643</v>
+        <v>0.4456008</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2952,7 +2952,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>0.4447171</v>
+        <v>0.4447576</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.4438378</v>
+        <v>0.4438826</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2974,7 +2974,7 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>0.4429259</v>
+        <v>0.4429754</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0.441981</v>
+        <v>0.4420356</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2996,7 +2996,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>0.4410027</v>
+        <v>0.4410628</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>0.4399908</v>
+        <v>0.4400568</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3018,7 +3018,7 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>0.438945</v>
+        <v>0.4390174</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.4378652</v>
+        <v>0.4379445</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.4367513</v>
+        <v>0.4368379</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.4356033</v>
+        <v>0.4356978</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>0.4344214</v>
+        <v>0.4345242</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>0.4332056</v>
+        <v>0.4333173</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3084,7 +3084,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.4319563</v>
+        <v>0.4320774</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4306738</v>
+        <v>0.4308048</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3106,7 +3106,7 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>0.4293584</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>0.4280108</v>
+        <v>0.4281633</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3128,7 +3128,7 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>0.4266314</v>
+        <v>0.4267954</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.4252208</v>
+        <v>0.4253969</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>0.4237798</v>
+        <v>0.4239685</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>0.4223091</v>
+        <v>0.4225107</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.4208094</v>
+        <v>0.4210245</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.4192815</v>
+        <v>0.4195105</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>0.4177263</v>
+        <v>0.4179695</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>0.4161446</v>
+        <v>0.4164024</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>0.4145373</v>
+        <v>0.41481</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>0.4129052</v>
+        <v>0.413193</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>0.4112491</v>
+        <v>0.4115522</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>0.4095699</v>
+        <v>0.4098883</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.4078683</v>
+        <v>0.4082021</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.4061451</v>
+        <v>0.4064941</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>0.4044009</v>
+        <v>0.4047651</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>0.4026364</v>
+        <v>0.4030155</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>0.4008521</v>
+        <v>0.4012457</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>0.3990485</v>
+        <v>0.3994562</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>0.397226</v>
+        <v>0.3976473</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.3953849</v>
+        <v>0.395819</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.3935255</v>
+        <v>0.3939715</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>0.3916478</v>
+        <v>0.3921049</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.3897519</v>
+        <v>0.3902189</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>0.3878377</v>
+        <v>0.3883134</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.3859051</v>
+        <v>0.3863879</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>0.3839536</v>
+        <v>0.3844421</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>0.3819828</v>
+        <v>0.3824754</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>0.3799924</v>
+        <v>0.380487</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.3779816</v>
+        <v>0.3784762</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.3759497</v>
+        <v>0.3764421</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>0.3738958</v>
+        <v>0.3743836</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0.371819</v>
+        <v>0.3722997</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>0.3697183</v>
+        <v>0.3701891</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.3675924</v>
+        <v>0.3680505</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.3654402</v>
+        <v>0.3658825</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.3632603</v>
+        <v>0.3636835</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.3610514</v>
+        <v>0.3614521</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>0.3588118</v>
+        <v>0.3591866</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0.35654</v>
+        <v>0.3568852</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>0.3542345</v>
+        <v>0.3545461</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>0.3518935</v>
+        <v>0.3521677</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>0.3495152</v>
+        <v>0.3497479</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>0.3470979</v>
+        <v>0.347285</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>0.3446397</v>
+        <v>0.344777</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>0.3421388</v>
+        <v>0.3422219</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>0.3395933</v>
+        <v>0.3396179</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>0.3370013</v>
+        <v>0.336963</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>0.3343608</v>
+        <v>0.3342553</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>0.33167</v>
+        <v>0.331493</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>0.328927</v>
+        <v>0.3286742</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>0.3261299</v>
+        <v>0.3257972</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>0.3232769</v>
+        <v>0.3228603</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>0.3203663</v>
+        <v>0.3198619</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>0.3173963</v>
+        <v>0.3168004</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>0.3143654</v>
+        <v>0.3136746</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>0.311272</v>
+        <v>0.3104831</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>0.3081148</v>
+        <v>0.3072249</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>0.3048925</v>
+        <v>0.3038991</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>0.301604</v>
+        <v>0.300505</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>0.2982484</v>
+        <v>0.2970422</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>0.2948251</v>
+        <v>0.2935104</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>0.2913336</v>
+        <v>0.2899098</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>0.2877737</v>
+        <v>0.2862408</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>0.2841457</v>
+        <v>0.2825039</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>0.2804498</v>
+        <v>0.2787004</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>0.276687</v>
+        <v>0.2748317</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>0.2728585</v>
+        <v>0.2708997</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>0.2689659</v>
+        <v>0.2669068</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>0.2650113</v>
+        <v>0.2628557</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>0.2609974</v>
+        <v>0.2587497</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>0.2569271</v>
+        <v>0.2545926</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>0.2528042</v>
+        <v>0.2503887</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3920,7 +3920,7 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>0.2486327</v>
+        <v>0.2461429</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>0.2444174</v>
+        <v>0.2418605</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3942,7 +3942,7 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>0.2401636</v>
+        <v>0.2375473</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3953,7 +3953,7 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>0.2358771</v>
+        <v>0.2332097</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>0.2315642</v>
+        <v>0.2288546</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>0.2272319</v>
+        <v>0.2244891</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>0.2228874</v>
+        <v>0.220121</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>0.2185386</v>
+        <v>0.2157583</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4008,7 +4008,7 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>0.2141937</v>
+        <v>0.2114092</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>0.209861</v>
+        <v>0.2070823</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>0.2055494</v>
+        <v>0.2027862</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>0.2012678</v>
+        <v>0.1985296</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>0.1970251</v>
+        <v>0.1943212</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>0.1928302</v>
+        <v>0.1901695</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>0.1886921</v>
+        <v>0.1860829</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>0.1846192</v>
+        <v>0.1820695</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>0.18062</v>
+        <v>0.1781369</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>0.1767024</v>
+        <v>0.1742924</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>0.1728739</v>
+        <v>0.1705426</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>0.1691413</v>
+        <v>0.1668938</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>0.1655108</v>
+        <v>0.1633512</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>0.1619882</v>
+        <v>0.1599198</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>0.1585783</v>
+        <v>0.1566036</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>0.1552853</v>
+        <v>0.1534059</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>0.1521124</v>
+        <v>0.1503293</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4195,7 +4195,7 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>0.1490623</v>
+        <v>0.1473757</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>0.1461368</v>
+        <v>0.1445462</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>0.143337</v>
+        <v>0.1418413</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>0.1406633</v>
+        <v>0.1392607</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>0.1381152</v>
+        <v>0.1368037</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>0.1356919</v>
+        <v>0.1344689</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>0.1333918</v>
+        <v>0.1322543</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>0.1312129</v>
+        <v>0.1301576</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4283,7 +4283,7 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>0.1291525</v>
+        <v>0.1281759</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4294,7 +4294,7 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>0.1272078</v>
+        <v>0.1263062</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4305,7 +4305,7 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>0.1253753</v>
+        <v>0.124545</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4316,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>0.1236516</v>
+        <v>0.1228886</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4327,7 +4327,7 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>0.1220327</v>
+        <v>0.1213331</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4338,7 +4338,7 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>0.1205146</v>
+        <v>0.1198746</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4349,7 +4349,7 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>0.1190932</v>
+        <v>0.1185089</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>0.1177641</v>
+        <v>0.1172318</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4371,7 +4371,7 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <v>0.1165231</v>
+        <v>0.1160391</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4382,7 +4382,7 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <v>0.1153659</v>
+        <v>0.1149266</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4393,7 +4393,7 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <v>0.1142881</v>
+        <v>0.1138902</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4404,7 +4404,7 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <v>0.1132855</v>
+        <v>0.1129257</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4415,7 +4415,7 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <v>0.112354</v>
+        <v>0.1120292</v>
       </c>
     </row>
   </sheetData>
